--- a/biology/Biologie cellulaire et moléculaire/Métaphase/Métaphase.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Métaphase/Métaphase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9taphase</t>
+          <t>Métaphase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La métaphase (du grec ancien μετά, metá : « au-delà, après ») est la seconde phase de la mitose et de la méiose (ou troisième phase si on considère la prométaphase et la métaphase comme deux étapes distinctes).  
 Pour la mitose humaine, la métaphase est très rapide (5 % de la mitose) et correspond au rassemblement des chromosomes condensés à deux chromatides à l’équateur de la cellule pour former la plaque équatoriale, avant d’être séparés pendant l'anaphase. 
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9taphase</t>
+          <t>Métaphase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,9 +529,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Conséquence de l'accrochage amphitélique
-L'accroche amphitélique signifie que le centromère est relié, au niveau de ces kinétochores, par des fibres kinétochoriennes (ou chromosomique) provenant des deux pôles de la cellule. Cet accrochage amphitélique est mis en place durant la prométaphase, et est un des phénomènes principaux du point de contrôle de la mitose.   
-Lorsque tous les chromosomes sont accrochés de manière amphitélique, alors la libération des protéines Aurora B dans le cytosol va entraîner l'inactivation du complexe CDK1-Cycline B1[1],[2] (par dégradation de la Cycline B1) et l'activation du complexe promoteur de l’anaphase (abrégé APC/C) qui permet aux chromatides sœurs de se séparer totalement (au niveau du centromère). L’APC/C catalyse en effet l’ubiquitination de la sécurine, une protéine qui inhibe la séparase (la séparase est responsable de la protéolyse des cohésines, les cohésines assurent l'attachement des 2 chromatides, notamment au niveau juxtacentromérique)[3].
+          <t>Conséquence de l'accrochage amphitélique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'accroche amphitélique signifie que le centromère est relié, au niveau de ces kinétochores, par des fibres kinétochoriennes (ou chromosomique) provenant des deux pôles de la cellule. Cet accrochage amphitélique est mis en place durant la prométaphase, et est un des phénomènes principaux du point de contrôle de la mitose.   
+Lorsque tous les chromosomes sont accrochés de manière amphitélique, alors la libération des protéines Aurora B dans le cytosol va entraîner l'inactivation du complexe CDK1-Cycline B1, (par dégradation de la Cycline B1) et l'activation du complexe promoteur de l’anaphase (abrégé APC/C) qui permet aux chromatides sœurs de se séparer totalement (au niveau du centromère). L’APC/C catalyse en effet l’ubiquitination de la sécurine, une protéine qui inhibe la séparase (la séparase est responsable de la protéolyse des cohésines, les cohésines assurent l'attachement des 2 chromatides, notamment au niveau juxtacentromérique).
 </t>
         </is>
       </c>
@@ -530,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9taphase</t>
+          <t>Métaphase</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +565,9 @@
           <t>Méiose</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lors de la métaphase 2, les chromosomes suivent le même schéma que lors de la première métaphase seulement ils sont sur le point de se séparer non de leur chromatine homologue mais bien de leur chromosome homologue.
 </t>
